--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100055</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国全球科技互联网股票(QDII)</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003243</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003244</t>
+          <t>470888</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+          <t>汇添富香港优势精选混合 (QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003245</t>
+          <t>003243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.58</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.36</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>003244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>003245</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>470888</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>97.00</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>118001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>易方达亚洲精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>30.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>000041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>华夏全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118001</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达亚洲精选股票(QDII)</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000041</t>
+          <t>003243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏全球精选股票(QDII)</t>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>003244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>003245</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>88.75</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.93</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003243</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003244</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003245</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -1302,12 +1302,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.21</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.5566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1333,13 +1376,879 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>168.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.8358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.2869</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3664</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9997</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.17</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>277.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>29.8207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.21</v>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>397.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>28.5340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2242,13 +2307,1731 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>16.2185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.3507</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.0313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.1073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1405</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7485</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,357 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2316</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121.56</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2316</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1093</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003244</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003245</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0693</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>050015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.92</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -814,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -865,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>118001</t>
+          <t>513330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达亚洲精选股票(QDII)</t>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.54</t>
+          <t>277.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>96.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8507</t>
+          <t>29.8207</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -903,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000041</t>
+          <t>513050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏全球精选股票(QDII)</t>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.43</t>
+          <t>397.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>97.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5843</t>
+          <t>28.5340</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -941,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>110011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>易方达中小盘混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1715</t>
+          <t>16.2185</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -979,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003243</t>
+          <t>513180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>123.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>9.3507</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1017,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003244</t>
+          <t>164906</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>120.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>8.0313</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1055,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003245</t>
+          <t>510900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+          <t>易方达恒生国企(QDII-ETF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>104.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>96.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>4.7289</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1093,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>118001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>易方达亚洲精选股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>52.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>4.6680</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1131,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>159605</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>41.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>99.69</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>4.1489</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1169,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>159920</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>华夏恒生ETF(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>149.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>4.1073</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1207,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000927</t>
+          <t>513010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>2.3266</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1245,36 +985,1328 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>050015</t>
+          <t>070012</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+          <t>嘉实海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>1.1405</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7485</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +3212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,7 +3233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2231,36 +3263,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513330</t>
+          <t>118001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏恒生互联网科技业ETF（QDII）</t>
+          <t>易方达亚洲精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>277.66</t>
+          <t>30.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.34</t>
+          <t>94.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29.8207</t>
+          <t>1.8507</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2269,36 +3301,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513050</t>
+          <t>000041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+          <t>华夏全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>397.41</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.91</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28.5340</t>
+          <t>0.5843</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2307,36 +3339,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110011</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中小盘混合</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>82.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16.2185</t>
+          <t>0.1715</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2345,36 +3377,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>513180</t>
+          <t>003243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>123.85</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.3507</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2383,36 +3415,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164906</t>
+          <t>003244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>120.05</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.0313</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2421,36 +3453,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510900</t>
+          <t>003245</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达恒生国企(QDII-ETF)</t>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>104.16</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.98</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.7289</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2459,36 +3491,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>118001</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达亚洲精选股票(QDII)</t>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>52.45</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>88.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.6680</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2497,36 +3529,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159605</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.69</t>
+          <t>88.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.1489</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2535,36 +3567,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159920</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏恒生ETF(QDII)</t>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>149.90</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>88.75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.1073</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2573,36 +3605,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513010</t>
+          <t>000927</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>90.09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.3266</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2611,1328 +3643,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>070012</t>
+          <t>050015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实海外中国混合(QDII)</t>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>90.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.1405</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159607</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7485</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>159740</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6997</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000988</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 人民币QDII</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6272</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000989</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.6272</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000990</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.6272</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012208</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4994</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4193</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4193</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>513580</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4163</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>159742</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4074</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159747</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>99.61</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3397</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>159741</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>99.73</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2813</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>012379</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2778</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>862012</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2584</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>862001</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2584</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>862011</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2584</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>159850</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华夏恒生中国企业ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>96.12</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2557</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>013127</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1943</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>513890</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上投摩根恒生科技ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1552</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1225</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>012380</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>86.64</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0887</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>164705</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>013128</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇添富恒生科技指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.67</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0776</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>161229</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0529</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>519601</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>海富通中国海外精选混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>160924</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>大成恒生指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>77.12</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>012209</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>87.49</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>010789</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>汇添富恒生指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>014127</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>77.12</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3946,96 +3686,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>121.56</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.17</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.21</v>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.92</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>121.56</v>
+        <v>101.85</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>61.17</v>
+        <v>121.56</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>3.21</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -549,6 +566,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>317.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.8670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>204.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>22.7709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达优质精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>173.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.6615</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>103.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.7005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.6715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.1768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.8090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3307</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2314,7 +4249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3206,7 +5141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3680,7 +5615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/09618-京东集团.xlsx
+++ b/数据整理/stocks/港股/09618-京东集团.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>101.85</v>
+        <v>115.59</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>121.56</v>
+        <v>101.85</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>61.17</v>
+        <v>121.56</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>3.21</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -566,6 +583,2152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>364.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.2793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>246.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23.3710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达优质精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.0525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.4108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>113.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.8004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>101.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.0111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>163.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8869</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.6969</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.1715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3735</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2457</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0366</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4380</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513260</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015884</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015885</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016742</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2483,7 +4646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4249,7 +6412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5141,7 +7304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5615,7 +7778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
